--- a/sheet/cardset.xlsx
+++ b/sheet/cardset.xlsx
@@ -10,12 +10,12 @@
     <sheet name="メガミ" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="170">
   <si>
     <t>名前</t>
   </si>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>一覧表示名（中国語）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>一覧表示名前（韓国語）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>一覧表示名（韓国語）</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -361,9 +353,6 @@
   </si>
   <si>
     <t>Shinmaku Season 6-2 (from 2021/2/1)</t>
-  </si>
-  <si>
-    <t>Shinmaku Season 7 (2021/12/3-)</t>
   </si>
   <si>
     <t>新幕 赛季2 (2018/8/17～ 『一扩：神语起谭』之后)</t>
@@ -1130,6 +1119,114 @@
     <t>Shinmaku Season 7</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>na-s7-2</t>
+  </si>
+  <si>
+    <t>新幕 シーズン7-2</t>
+  </si>
+  <si>
+    <t>新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">新幕 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>季7-2</t>
+    </r>
+  </si>
+  <si>
+    <t>新幕 赛季7-2（2022/5/15～『7扩：徒樱团圆』之后）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신막</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시즌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7-2</t>
+    </r>
+  </si>
+  <si>
+    <t>신막 시즌7-2(2022/5/13~『제7확장：도앵단원』이후)</t>
+  </si>
+  <si>
+    <t>Shinmaku Season 7-2</t>
+  </si>
+  <si>
+    <t>一覧表示名（中国語）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（韓国語）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Shinmaku Season 7-2 (Expansion 7 release, from 2022/05/13)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1210,12 +1307,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1243,7 +1346,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1364,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1478,14 +1587,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V971"/>
+  <dimension ref="A1:V972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1498,7 +1607,7 @@
     <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="22" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1516,19 +1625,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1546,31 +1655,31 @@
     </row>
     <row r="2" spans="1:22" ht="12" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
@@ -1591,31 +1700,31 @@
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', listName: '"&amp;C3&amp;"', nameZh: '"&amp;D3&amp;"', listNameZh: '"&amp;E3&amp;"',nameKo: '"&amp;F3&amp;"', listNameKo: '"&amp;G3&amp;"',nameEn: '"&amp;H3&amp;"', listNameEn: '"&amp;I3&amp;"'}"</f>
@@ -1636,31 +1745,31 @@
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': { name: '"&amp;B4&amp;"', listName: '"&amp;C4&amp;"', nameZh: '"&amp;D4&amp;"', listNameZh: '"&amp;E4&amp;"',nameKo: '"&amp;F4&amp;"', listNameKo: '"&amp;G4&amp;"',nameEn: '"&amp;H4&amp;"', listNameEn: '"&amp;I4&amp;"'}"</f>
@@ -1681,31 +1790,31 @@
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': { name: '"&amp;B5&amp;"', listName: '"&amp;C5&amp;"', nameZh: '"&amp;D5&amp;"', listNameZh: '"&amp;E5&amp;"',nameKo: '"&amp;F5&amp;"', listNameKo: '"&amp;G5&amp;"',nameEn: '"&amp;H5&amp;"', listNameEn: '"&amp;I5&amp;"'}"</f>
@@ -1726,31 +1835,31 @@
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': { name: '"&amp;B6&amp;"', listName: '"&amp;C6&amp;"', nameZh: '"&amp;D6&amp;"', listNameZh: '"&amp;E6&amp;"',nameKo: '"&amp;F6&amp;"', listNameKo: '"&amp;G6&amp;"',nameEn: '"&amp;H6&amp;"', listNameEn: '"&amp;I6&amp;"'}"</f>
@@ -1771,31 +1880,31 @@
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ref="J7" si="0">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': { name: '"&amp;B7&amp;"', listName: '"&amp;C7&amp;"', nameZh: '"&amp;D7&amp;"', listNameZh: '"&amp;E7&amp;"',nameKo: '"&amp;F7&amp;"', listNameKo: '"&amp;G7&amp;"',nameEn: '"&amp;H7&amp;"', listNameEn: '"&amp;I7&amp;"'}"</f>
@@ -1822,29 +1931,29 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': { name: '"&amp;B8&amp;"', listName: '"&amp;C8&amp;"', nameZh: '"&amp;D8&amp;"', listNameZh: '"&amp;E8&amp;"',nameKo: '"&amp;F8&amp;"', listNameKo: '"&amp;G8&amp;"',nameEn: '"&amp;H8&amp;"', listNameEn: '"&amp;I8&amp;"'}"</f>
-        <v>, 'na-s7': { name: '新幕 シーズン7', listName: '新幕 シーズン7 (2021/12/3～ 『第六拡張：失楽飛翔』以降)', nameZh: '新幕 赛季7', listNameZh: '新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)',nameKo: '신막 시즌7', listNameKo: '신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)',nameEn: 'Shinmaku Season 7', listNameEn: 'Shinmaku Season 7 (2021/12/3-)'}</v>
+        <v>, 'na-s7': { name: '新幕 シーズン7', listName: '新幕 シーズン7 (2021/12/3～ 『第六拡張：失楽飛翔』以降)', nameZh: '新幕 赛季7', listNameZh: '新幕 赛季7 (2021/12/3～ 『六扩：失乐飞翔』之后)',nameKo: '신막 시즌7', listNameKo: '신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)',nameEn: 'Shinmaku Season 7', listNameEn: 'Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)'}</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1861,35 +1970,35 @@
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>161</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>107</v>
+        <v>165</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f t="shared" ref="J9" si="1">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': { name: '"&amp;B9&amp;"', listName: '"&amp;C9&amp;"', nameZh: '"&amp;D9&amp;"', listNameZh: '"&amp;E9&amp;"',nameKo: '"&amp;F9&amp;"', listNameKo: '"&amp;G9&amp;"',nameEn: '"&amp;H9&amp;"', listNameEn: '"&amp;I9&amp;"'}"</f>
-        <v>, 'story-0': { name: '物語0：神語りのはじまり', listName: '物語0：神語りのはじまり', nameZh: '物语0 神话的开端', listNameZh: '物语0 神话的开端',nameKo: '이야기0: 신화의 시작', listNameKo: '이야기0: 신화의 시작',nameEn: 'Story 0: The Legend Begins', listNameEn: 'Story 0: The Legend Begins'}</v>
+        <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': { name: '"&amp;B9&amp;"', listName: '"&amp;C9&amp;"', nameZh: '"&amp;D9&amp;"', listNameZh: '"&amp;E9&amp;"',nameKo: '"&amp;F9&amp;"', listNameKo: '"&amp;G9&amp;"',nameEn: '"&amp;H9&amp;"', listNameEn: '"&amp;I9&amp;"'}"</f>
+        <v>, 'na-s7-2': { name: '新幕 シーズン7-2', listName: '新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)', nameZh: '新幕 赛季7-2', listNameZh: '新幕 赛季7-2（2022/5/15～『7扩：徒樱团圆』之后）',nameKo: '신막 시즌7-2', listNameKo: '신막 시즌7-2(2022/5/13~『제7확장：도앵단원』이후)',nameEn: 'Shinmaku Season 7-2', listNameEn: 'Shinmaku Season 7-2 (Expansion 7 release, from 2022/05/13)'}</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1906,35 +2015,35 @@
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f t="shared" ref="J10:J26" si="2">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': { name: '"&amp;B10&amp;"', listName: '"&amp;C10&amp;"', nameZh: '"&amp;D10&amp;"', listNameZh: '"&amp;E10&amp;"',nameKo: '"&amp;F10&amp;"', listNameKo: '"&amp;G10&amp;"',nameEn: '"&amp;H10&amp;"', listNameEn: '"&amp;I10&amp;"'}"</f>
-        <v>, 'story-1': { name: '物語1：天音揺波 対 氷雨細音', listName: '物語1：天音揺波 対 氷雨細音', nameZh: '物语1 天音摇波 对 冰雨细音', listNameZh: '物语1 天音摇波 对 冰雨细音',nameKo: '이야기1: 아마네 유리나 대 히사메 사이네', listNameKo: '이야기1: 아마네 유리나 대 히사메 사이네',nameEn: 'Story 1: Yurina Amane vs. Saine Hisame', listNameEn: 'Story 1: Yurina Amane vs. Saine Hisame'}</v>
+        <f t="shared" ref="J10" si="1">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': { name: '"&amp;B10&amp;"', listName: '"&amp;C10&amp;"', nameZh: '"&amp;D10&amp;"', listNameZh: '"&amp;E10&amp;"',nameKo: '"&amp;F10&amp;"', listNameKo: '"&amp;G10&amp;"',nameEn: '"&amp;H10&amp;"', listNameEn: '"&amp;I10&amp;"'}"</f>
+        <v>, 'story-0': { name: '物語0：神語りのはじまり', listName: '物語0：神語りのはじまり', nameZh: '物语0 神话的开端', listNameZh: '物语0 神话的开端',nameKo: '이야기0: 신화의 시작', listNameKo: '이야기0: 신화의 시작',nameEn: 'Story 0: The Legend Begins', listNameEn: 'Story 0: The Legend Begins'}</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1951,35 +2060,35 @@
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-2': { name: '物語2：龍ノ宮一志暗殺計画', listName: '物語2：龍ノ宮一志暗殺計画', nameZh: '物语2 暗杀龙之宫一志计划', listNameZh: '物语2 暗杀龙之宫一志计划',nameKo: '이야기2: 타츠노미야 잇시 암살 계획', listNameKo: '이야기2: 타츠노미야 잇시 암살 계획',nameEn: 'Story 2: The Assassination of Isshi Tatsunomiya', listNameEn: 'Story 2: The Assassination of Isshi Tatsunomiya'}</v>
+        <f t="shared" ref="J11:J27" si="2">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': { name: '"&amp;B11&amp;"', listName: '"&amp;C11&amp;"', nameZh: '"&amp;D11&amp;"', listNameZh: '"&amp;E11&amp;"',nameKo: '"&amp;F11&amp;"', listNameKo: '"&amp;G11&amp;"',nameEn: '"&amp;H11&amp;"', listNameEn: '"&amp;I11&amp;"'}"</f>
+        <v>, 'story-1': { name: '物語1：天音揺波 対 氷雨細音', listName: '物語1：天音揺波 対 氷雨細音', nameZh: '物语1 天音摇波 对 冰雨细音', listNameZh: '物语1 天音摇波 对 冰雨细音',nameKo: '이야기1: 아마네 유리나 대 히사메 사이네', listNameKo: '이야기1: 아마네 유리나 대 히사메 사이네',nameEn: 'Story 1: Yurina Amane vs. Saine Hisame', listNameEn: 'Story 1: Yurina Amane vs. Saine Hisame'}</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1996,35 +2105,35 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-9': { name: '物語9：はじめての代理戦争', listName: '物語9：はじめての代理戦争', nameZh: '物语9 最初的代理战争', listNameZh: '物语9 最初的代理战争',nameKo: '이야기9: 처음하는 대리 전쟁', listNameKo: '이야기9: 처음하는 대리 전쟁',nameEn: 'Story 9: The First Proxy War', listNameEn: 'Story 9: The First Proxy War'}</v>
+        <v>, 'story-2': { name: '物語2：龍ノ宮一志暗殺計画', listName: '物語2：龍ノ宮一志暗殺計画', nameZh: '物语2 暗杀龙之宫一志计划', listNameZh: '物语2 暗杀龙之宫一志计划',nameKo: '이야기2: 타츠노미야 잇시 암살 계획', listNameKo: '이야기2: 타츠노미야 잇시 암살 계획',nameEn: 'Story 2: The Assassination of Isshi Tatsunomiya', listNameEn: 'Story 2: The Assassination of Isshi Tatsunomiya'}</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2041,35 +2150,35 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-10': { name: '物語10：コルヌに挑戦！', listName: '物語10：コルヌに挑戦！', nameZh: '物语10 挑战凝努！', listNameZh: '物语10 挑战凝努！',nameKo: '이야기10: 코르누에게 도전!', listNameKo: '이야기10: 코르누에게 도전!',nameEn: 'Story 10: Challenge Korunu!', listNameEn: 'Story 10: Challenge Korunu!'}</v>
+        <v>, 'story-9': { name: '物語9：はじめての代理戦争', listName: '物語9：はじめての代理戦争', nameZh: '物语9 最初的代理战争', listNameZh: '物语9 最初的代理战争',nameKo: '이야기9: 처음하는 대리 전쟁', listNameKo: '이야기9: 처음하는 대리 전쟁',nameEn: 'Story 9: The First Proxy War', listNameEn: 'Story 9: The First Proxy War'}</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2086,35 +2195,35 @@
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-10-heroic': { name: '物語10：コルヌに挑戦！（英雄戦）', listName: '物語10：コルヌに挑戦！（英雄戦）', nameZh: '物语10 挑战凝努！（英雄战）', listNameZh: '物语10 挑战凝努！（英雄战）',nameKo: '이야기10: 코르누에게 도전! (영웅전)', listNameKo: '이야기10: 코르누에게 도전! (영웅전)',nameEn: 'Story 10: Challenge Korunu! (Heroic)', listNameEn: 'Story 10: Challenge Korunu! (Heroic)'}</v>
+        <v>, 'story-10': { name: '物語10：コルヌに挑戦！', listName: '物語10：コルヌに挑戦！', nameZh: '物语10 挑战凝努！', listNameZh: '物语10 挑战凝努！',nameKo: '이야기10: 코르누에게 도전!', listNameKo: '이야기10: 코르누에게 도전!',nameEn: 'Story 10: Challenge Korunu!', listNameEn: 'Story 10: Challenge Korunu!'}</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2131,35 +2240,35 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-12': { name: '物語12：徒神サイネに挑戦！', listName: '物語12：徒神サイネに挑戦！', nameZh: '物语12 挑战徒神细音！', listNameZh: '物语12 挑战徒神细音！',nameKo: '이야기12: 도신 사이네에게 도전!', listNameKo: '이야기12: 도신 사이네에게 도전!',nameEn: 'Story 12: Challenge Adagami Saine!', listNameEn: 'Story 12: Challenge Adagami Saine!'}</v>
+        <v>, 'story-10-heroic': { name: '物語10：コルヌに挑戦！（英雄戦）', listName: '物語10：コルヌに挑戦！（英雄戦）', nameZh: '物语10 挑战凝努！（英雄战）', listNameZh: '物语10 挑战凝努！（英雄战）',nameKo: '이야기10: 코르누에게 도전! (영웅전)', listNameKo: '이야기10: 코르누에게 도전! (영웅전)',nameEn: 'Story 10: Challenge Korunu! (Heroic)', listNameEn: 'Story 10: Challenge Korunu! (Heroic)'}</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2176,35 +2285,35 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-12-heroic': { name: '物語12：徒神サイネに挑戦！（英雄戦）', listName: '物語12：徒神サイネに挑戦！（英雄戦）', nameZh: '物语12 挑战徒神细音！（英雄战）', listNameZh: '物语12 挑战徒神细音！（英雄战）',nameKo: '이야기12: 도신 사이네에게 도전! (영웅전)', listNameKo: '이야기12: 도신 사이네에게 도전! (영웅전)',nameEn: 'Story 12: Challenge Adagami Saine! (Heroic)', listNameEn: 'Story 12: Challenge Adagami Saine! (Heroic)'}</v>
+        <v>, 'story-12': { name: '物語12：徒神サイネに挑戦！', listName: '物語12：徒神サイネに挑戦！', nameZh: '物语12 挑战徒神细音！', listNameZh: '物语12 挑战徒神细音！',nameKo: '이야기12: 도신 사이네에게 도전!', listNameKo: '이야기12: 도신 사이네에게 도전!',nameEn: 'Story 12: Challenge Adagami Saine!', listNameEn: 'Story 12: Challenge Adagami Saine!'}</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2221,35 +2330,35 @@
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-13': { name: '物語13：新幕トコヨに挑戦！', listName: '物語13：新幕トコヨに挑戦！', nameZh: '物语13 挑战新幕常世！', listNameZh: '物语13 挑战新幕常世！',nameKo: '이야기13: 신막 토코요에게 도전!', listNameKo: '이야기13: 신막 토코요에게 도전!',nameEn: 'Story 13: Challenge Tokoyo!', listNameEn: 'Story 13: Challenge Tokoyo!'}</v>
+        <v>, 'story-12-heroic': { name: '物語12：徒神サイネに挑戦！（英雄戦）', listName: '物語12：徒神サイネに挑戦！（英雄戦）', nameZh: '物语12 挑战徒神细音！（英雄战）', listNameZh: '物语12 挑战徒神细音！（英雄战）',nameKo: '이야기12: 도신 사이네에게 도전! (영웅전)', listNameKo: '이야기12: 도신 사이네에게 도전! (영웅전)',nameEn: 'Story 12: Challenge Adagami Saine! (Heroic)', listNameEn: 'Story 12: Challenge Adagami Saine! (Heroic)'}</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2266,35 +2375,35 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-13-heroic': { name: '物語13：新幕トコヨに挑戦！（英雄戦）', listName: '物語13：新幕トコヨに挑戦！（英雄戦）', nameZh: '物语13 挑战新幕常世！（英雄战）', listNameZh: '物语13 挑战新幕常世！（英雄战）',nameKo: '이야기13: 신막 토코요에게 도전! (영웅전)', listNameKo: '이야기13: 신막 토코요에게 도전! (영웅전)',nameEn: 'Story 13: Challenge Tokoyo! (Heroic)', listNameEn: 'Story 13: Challenge Tokoyo! (Heroic)'}</v>
+        <v>, 'story-13': { name: '物語13：新幕トコヨに挑戦！', listName: '物語13：新幕トコヨに挑戦！', nameZh: '物语13 挑战新幕常世！', listNameZh: '物语13 挑战新幕常世！',nameKo: '이야기13: 신막 토코요에게 도전!', listNameKo: '이야기13: 신막 토코요에게 도전!',nameEn: 'Story 13: Challenge Tokoyo!', listNameEn: 'Story 13: Challenge Tokoyo!'}</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2311,35 +2420,35 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'story-15': { name: '物語15：彼女の挑戦', listName: '物語15：彼女の挑戦', nameZh: '物语15 她的挑战', listNameZh: '物语15 她的挑战',nameKo: '이야기15: 그녀의 도전', listNameKo: '이야기15: 그녀의 도전',nameEn: 'Story 15: The Girl's Challenge', listNameEn: 'Story 15: The Girl's Challenge'}</v>
+        <v>, 'story-13-heroic': { name: '物語13：新幕トコヨに挑戦！（英雄戦）', listName: '物語13：新幕トコヨに挑戦！（英雄戦）', nameZh: '物语13 挑战新幕常世！（英雄战）', listNameZh: '物语13 挑战新幕常世！（英雄战）',nameKo: '이야기13: 신막 토코요에게 도전! (영웅전)', listNameKo: '이야기13: 신막 토코요에게 도전! (영웅전)',nameEn: 'Story 13: Challenge Tokoyo! (Heroic)', listNameEn: 'Story 13: Challenge Tokoyo! (Heroic)'}</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2356,23 +2465,35 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'hajimari': { name: 'はじまりの決闘', listName: 'はじまりの決闘（初心者向け）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'story-15': { name: '物語15：彼女の挑戦', listName: '物語15：彼女の挑戦', nameZh: '物语15 她的挑战', listNameZh: '物语15 她的挑战',nameKo: '이야기15: 그녀의 도전', listNameKo: '이야기15: 그녀의 도전',nameEn: 'Story 15: The Girl's Challenge', listNameEn: 'Story 15: The Girl's Challenge'}</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2389,13 +2510,13 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2405,7 +2526,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'oboro-challenge': { name: 'オボロへの挑戦', listName: 'メガミへの挑戦　第1回：オボロへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'hajimari': { name: 'はじまりの決闘', listName: 'はじまりの決闘（初心者向け）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2422,13 +2543,13 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2438,7 +2559,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'oboro-challenge-heroic': { name: 'オボロへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'oboro-challenge': { name: 'オボロへの挑戦', listName: 'メガミへの挑戦　第1回：オボロへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2455,13 +2576,13 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2471,7 +2592,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'chikage-challenge': { name: 'チカゲへの挑戦', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'oboro-challenge-heroic': { name: 'オボロへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2488,13 +2609,13 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2504,7 +2625,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'chikage-challenge-heroic': { name: 'チカゲへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'chikage-challenge': { name: 'チカゲへの挑戦', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2521,13 +2642,13 @@
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2537,7 +2658,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'raira-challenge': { name: 'ライラへの挑戦', listName: 'メガミへの挑戦　第3回：ライラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'chikage-challenge-heroic': { name: 'チカゲへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2554,13 +2675,13 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2570,7 +2691,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>, 'raira-challenge-heroic': { name: 'ライラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'raira-challenge': { name: 'ライラへの挑戦', listName: 'メガミへの挑戦　第3回：ライラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2587,13 +2708,13 @@
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2602,8 +2723,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="3" t="str">
-        <f t="shared" ref="J27:J30" si="3">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': { name: '"&amp;B27&amp;"', listName: '"&amp;C27&amp;"', nameZh: '"&amp;D27&amp;"', listNameZh: '"&amp;E27&amp;"',nameKo: '"&amp;F27&amp;"', listNameKo: '"&amp;G27&amp;"',nameEn: '"&amp;H27&amp;"', listNameEn: '"&amp;I27&amp;"'}"</f>
-        <v>, 'megumi-challenge': { name: 'メグミへの挑戦', listName: 'メガミへの挑戦　第4回：メグミへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <f t="shared" si="2"/>
+        <v>, 'raira-challenge-heroic': { name: 'ライラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2620,13 +2741,13 @@
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2635,8 +2756,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>, 'megumi-challenge-heroic': { name: 'メグミへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <f t="shared" ref="J28:J31" si="3">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': { name: '"&amp;B28&amp;"', listName: '"&amp;C28&amp;"', nameZh: '"&amp;D28&amp;"', listNameZh: '"&amp;E28&amp;"',nameKo: '"&amp;F28&amp;"', listNameKo: '"&amp;G28&amp;"',nameEn: '"&amp;H28&amp;"', listNameEn: '"&amp;I28&amp;"'}"</f>
+        <v>, 'megumi-challenge': { name: 'メグミへの挑戦', listName: 'メガミへの挑戦　第4回：メグミへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2653,13 +2774,13 @@
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2669,7 +2790,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>, 'shinra-challenge': { name: 'シンラへの挑戦', listName: 'メガミへの挑戦　第5回：シンラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'megumi-challenge-heroic': { name: 'メグミへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2686,13 +2807,13 @@
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2702,7 +2823,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>, 'shinra-challenge-heroic': { name: 'シンラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+        <v>, 'shinra-challenge': { name: 'シンラへの挑戦', listName: 'メガミへの挑戦　第5回：シンラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2717,17 +2838,26 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="12" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    <row r="31" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>, 'shinra-challenge-heroic': { name: 'シンラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2933,7 +3063,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="25.5" customHeight="1">
+    <row r="40" spans="1:22" ht="12" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2957,7 +3087,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="12" customHeight="1">
+    <row r="41" spans="1:22" ht="25.5" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4661,7 +4791,7 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
     </row>
-    <row r="112" spans="1:22" ht="13.5" customHeight="1">
+    <row r="112" spans="1:22" ht="12" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4685,7 +4815,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" ht="12" customHeight="1">
+    <row r="113" spans="1:22" ht="13.5" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5391,9 +5521,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
@@ -5495,7 +5623,9 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="2"/>
+      <c r="J146" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -10285,7 +10415,30 @@
       <c r="U345" s="2"/>
       <c r="V345" s="2"/>
     </row>
-    <row r="346" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="346" spans="1:22" ht="12" customHeight="1">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+      <c r="L346" s="2"/>
+      <c r="M346" s="2"/>
+      <c r="N346" s="2"/>
+      <c r="O346" s="2"/>
+      <c r="P346" s="2"/>
+      <c r="Q346" s="2"/>
+      <c r="R346" s="2"/>
+      <c r="S346" s="2"/>
+      <c r="T346" s="2"/>
+      <c r="U346" s="2"/>
+      <c r="V346" s="2"/>
+    </row>
     <row r="347" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="348" spans="1:22" ht="15.75" customHeight="1"/>
     <row r="349" spans="1:22" ht="15.75" customHeight="1"/>
@@ -10911,6 +11064,7 @@
     <row r="969" ht="15.75" customHeight="1"/>
     <row r="970" ht="15.75" customHeight="1"/>
     <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/sheet/cardset.xlsx
+++ b/sheet/cardset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
   <si>
     <t>名前</t>
   </si>
@@ -1226,6 +1226,44 @@
   <si>
     <t>Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>korunu-challenge</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>korunu-challenge-heroic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コルヌへの挑戦</t>
+  </si>
+  <si>
+    <t>コルヌへの挑戦（英雄戦）</t>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第7回：コルヌへの挑戦</t>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第7回：コルヌへの挑戦（英雄戦）</t>
+  </si>
+  <si>
+    <t>hagane-challenge</t>
+  </si>
+  <si>
+    <t>hagane-challenge-heroic</t>
+  </si>
+  <si>
+    <t>ハガネへの挑戦</t>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第8回：ハガネへの挑戦</t>
+  </si>
+  <si>
+    <t>ハガネへの挑戦（英雄戦）</t>
+  </si>
+  <si>
+    <t>メガミへの挑戦　第8回：ハガネへの挑戦（英雄戦）</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1632,7 @@
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2871,17 +2909,26 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="12" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="3" t="str">
+        <f t="shared" ref="J32:J35" si="4">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': { name: '"&amp;B32&amp;"', listName: '"&amp;C32&amp;"', nameZh: '"&amp;D32&amp;"', listNameZh: '"&amp;E32&amp;"',nameKo: '"&amp;F32&amp;"', listNameKo: '"&amp;G32&amp;"',nameEn: '"&amp;H32&amp;"', listNameEn: '"&amp;I32&amp;"'}"</f>
+        <v>, 'korunu-challenge': { name: 'コルヌへの挑戦', listName: 'メガミへの挑戦　第7回：コルヌへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2895,17 +2942,26 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="12" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>, 'korunu-challenge-heroic': { name: 'コルヌへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第7回：コルヌへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2919,17 +2975,26 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="12" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>, 'hagane-challenge': { name: 'ハガネへの挑戦', listName: 'メガミへの挑戦　第8回：ハガネへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2943,17 +3008,26 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="12" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>, 'hagane-challenge-heroic': { name: 'ハガネへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第8回：ハガネへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -11082,5 +11156,6 @@
   <sheetData/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheet/cardset.xlsx
+++ b/sheet/cardset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>名前</t>
   </si>
@@ -154,186 +154,6 @@
   </si>
   <si>
     <t>新幕 シーズン6-2 (2021/2/1～)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>物語0：神語りのはじまり</t>
-  </si>
-  <si>
-    <t>物語1：天音揺波 対 氷雨細音</t>
-  </si>
-  <si>
-    <t>物語2：龍ノ宮一志暗殺計画</t>
-  </si>
-  <si>
-    <t>物語9：はじめての代理戦争</t>
-  </si>
-  <si>
-    <t>物語10：コルヌに挑戦！</t>
-  </si>
-  <si>
-    <t>物語10：コルヌに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t>物語12：徒神サイネに挑戦！</t>
-  </si>
-  <si>
-    <t>物語12：徒神サイネに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t>物語13：新幕トコヨに挑戦！</t>
-  </si>
-  <si>
-    <t>物語13：新幕トコヨに挑戦！（英雄戦）</t>
-  </si>
-  <si>
-    <t>物語15：彼女の挑戦</t>
-  </si>
-  <si>
-    <t>はじまりの決闘（初心者向け）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第1回：オボロへの挑戦</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第2回：チカゲへの挑戦</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第3回：ライラへの挑戦</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>オボロへの挑戦</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>オボロへの挑戦（英雄戦）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>チカゲへの挑戦</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>チカゲへの挑戦（英雄戦）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ライラへの挑戦</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ライラへの挑戦（英雄戦）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>はじまりの決闘</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>story-0</t>
-  </si>
-  <si>
-    <t>story-1</t>
-  </si>
-  <si>
-    <t>story-2</t>
-  </si>
-  <si>
-    <t>story-9</t>
-  </si>
-  <si>
-    <t>story-10</t>
-  </si>
-  <si>
-    <t>story-10-heroic</t>
-  </si>
-  <si>
-    <t>story-12</t>
-  </si>
-  <si>
-    <t>story-12-heroic</t>
-  </si>
-  <si>
-    <t>story-13</t>
-  </si>
-  <si>
-    <t>story-13-heroic</t>
-  </si>
-  <si>
-    <t>story-15</t>
-  </si>
-  <si>
-    <t>hajimari</t>
-  </si>
-  <si>
-    <t>oboro-challenge</t>
-  </si>
-  <si>
-    <t>oboro-challenge-heroic</t>
-  </si>
-  <si>
-    <t>chikage-challenge</t>
-  </si>
-  <si>
-    <t>chikage-challenge-heroic</t>
-  </si>
-  <si>
-    <t>raira-challenge</t>
-  </si>
-  <si>
-    <t>raira-challenge-heroic</t>
-  </si>
-  <si>
-    <t>megumi-challenge</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>megumi-challenge-heroic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>shinra-challenge</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>shinra-challenge-heroic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>シンラへの挑戦</t>
-  </si>
-  <si>
-    <t>シンラへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メグミへの挑戦</t>
-  </si>
-  <si>
-    <t>メグミへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第4回：メグミへの挑戦</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第5回：シンラへの挑戦</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -498,105 +318,6 @@
   </si>
   <si>
     <t>신막 시즌7 (2021/12/3～ 『제6확장：실락비상』이후)</t>
-  </si>
-  <si>
-    <t>Story 0: The Legend Begins</t>
-  </si>
-  <si>
-    <t>Story 1: Yurina Amane vs. Saine Hisame</t>
-  </si>
-  <si>
-    <t>Story 2: The Assassination of Isshi Tatsunomiya</t>
-  </si>
-  <si>
-    <t>Story 9: The First Proxy War</t>
-  </si>
-  <si>
-    <t>Story 10: Challenge Korunu!</t>
-  </si>
-  <si>
-    <t>Story 10: Challenge Korunu! (Heroic)</t>
-  </si>
-  <si>
-    <t>Story 12: Challenge Adagami Saine!</t>
-  </si>
-  <si>
-    <t>Story 12: Challenge Adagami Saine! (Heroic)</t>
-  </si>
-  <si>
-    <t>Story 13: Challenge Tokoyo!</t>
-  </si>
-  <si>
-    <t>Story 13: Challenge Tokoyo! (Heroic)</t>
-  </si>
-  <si>
-    <t>Story 15: The Girl's Challenge</t>
-  </si>
-  <si>
-    <t>이야기0: 신화의 시작</t>
-  </si>
-  <si>
-    <t>이야기1: 아마네 유리나 대 히사메 사이네</t>
-  </si>
-  <si>
-    <t>이야기2: 타츠노미야 잇시 암살 계획</t>
-  </si>
-  <si>
-    <t>이야기9: 처음하는 대리 전쟁</t>
-  </si>
-  <si>
-    <t>이야기10: 코르누에게 도전!</t>
-  </si>
-  <si>
-    <t>이야기10: 코르누에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t>이야기12: 도신 사이네에게 도전!</t>
-  </si>
-  <si>
-    <t>이야기12: 도신 사이네에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t>이야기13: 신막 토코요에게 도전!</t>
-  </si>
-  <si>
-    <t>이야기13: 신막 토코요에게 도전! (영웅전)</t>
-  </si>
-  <si>
-    <t>이야기15: 그녀의 도전</t>
-  </si>
-  <si>
-    <t>物语0 神话的开端</t>
-  </si>
-  <si>
-    <t>物语1 天音摇波 对 冰雨细音</t>
-  </si>
-  <si>
-    <t>物语2 暗杀龙之宫一志计划</t>
-  </si>
-  <si>
-    <t>物语9 最初的代理战争</t>
-  </si>
-  <si>
-    <t>物语10 挑战凝努！</t>
-  </si>
-  <si>
-    <t>物语10 挑战凝努！（英雄战）</t>
-  </si>
-  <si>
-    <t>物语12 挑战徒神细音！</t>
-  </si>
-  <si>
-    <t>物语12 挑战徒神细音！（英雄战）</t>
-  </si>
-  <si>
-    <t>物语13 挑战新幕常世！</t>
-  </si>
-  <si>
-    <t>物语13 挑战新幕常世！（英雄战）</t>
-  </si>
-  <si>
-    <t>物语15 她的挑战</t>
   </si>
   <si>
     <r>
@@ -1227,44 +948,6 @@
     <t>Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)</t>
     <phoneticPr fontId="4"/>
   </si>
-  <si>
-    <t>korunu-challenge</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>korunu-challenge-heroic</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コルヌへの挑戦</t>
-  </si>
-  <si>
-    <t>コルヌへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第7回：コルヌへの挑戦</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第7回：コルヌへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>hagane-challenge</t>
-  </si>
-  <si>
-    <t>hagane-challenge-heroic</t>
-  </si>
-  <si>
-    <t>ハガネへの挑戦</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第8回：ハガネへの挑戦</t>
-  </si>
-  <si>
-    <t>ハガネへの挑戦（英雄戦）</t>
-  </si>
-  <si>
-    <t>メガミへの挑戦　第8回：ハガネへの挑戦（英雄戦）</t>
-  </si>
 </sst>
 </file>
 
@@ -1625,14 +1308,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V972"/>
+  <dimension ref="A1:V946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34:J35"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1663,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1702,22 +1385,22 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', listName: '"&amp;C2&amp;"', nameZh: '"&amp;D2&amp;"', listNameZh: '"&amp;E2&amp;"',nameKo: '"&amp;F2&amp;"', listNameKo: '"&amp;G2&amp;"',nameEn: '"&amp;H2&amp;"', listNameEn: '"&amp;I2&amp;"'}"</f>
@@ -1747,22 +1430,22 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', listName: '"&amp;C3&amp;"', nameZh: '"&amp;D3&amp;"', listNameZh: '"&amp;E3&amp;"',nameKo: '"&amp;F3&amp;"', listNameKo: '"&amp;G3&amp;"',nameEn: '"&amp;H3&amp;"', listNameEn: '"&amp;I3&amp;"'}"</f>
@@ -1792,22 +1475,22 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': { name: '"&amp;B4&amp;"', listName: '"&amp;C4&amp;"', nameZh: '"&amp;D4&amp;"', listNameZh: '"&amp;E4&amp;"',nameKo: '"&amp;F4&amp;"', listNameKo: '"&amp;G4&amp;"',nameEn: '"&amp;H4&amp;"', listNameEn: '"&amp;I4&amp;"'}"</f>
@@ -1837,22 +1520,22 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': { name: '"&amp;B5&amp;"', listName: '"&amp;C5&amp;"', nameZh: '"&amp;D5&amp;"', listNameZh: '"&amp;E5&amp;"',nameKo: '"&amp;F5&amp;"', listNameKo: '"&amp;G5&amp;"',nameEn: '"&amp;H5&amp;"', listNameEn: '"&amp;I5&amp;"'}"</f>
@@ -1882,22 +1565,22 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': { name: '"&amp;B6&amp;"', listName: '"&amp;C6&amp;"', nameZh: '"&amp;D6&amp;"', listNameZh: '"&amp;E6&amp;"',nameKo: '"&amp;F6&amp;"', listNameKo: '"&amp;G6&amp;"',nameEn: '"&amp;H6&amp;"', listNameEn: '"&amp;I6&amp;"'}"</f>
@@ -1927,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ref="J7" si="0">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': { name: '"&amp;B7&amp;"', listName: '"&amp;C7&amp;"', nameZh: '"&amp;D7&amp;"', listNameZh: '"&amp;E7&amp;"',nameKo: '"&amp;F7&amp;"', listNameKo: '"&amp;G7&amp;"',nameEn: '"&amp;H7&amp;"', listNameEn: '"&amp;I7&amp;"'}"</f>
@@ -1972,22 +1655,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': { name: '"&amp;B8&amp;"', listName: '"&amp;C8&amp;"', nameZh: '"&amp;D8&amp;"', listNameZh: '"&amp;E8&amp;"',nameKo: '"&amp;F8&amp;"', listNameKo: '"&amp;G8&amp;"',nameEn: '"&amp;H8&amp;"', listNameEn: '"&amp;I8&amp;"'}"</f>
@@ -2008,31 +1691,31 @@
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': { name: '"&amp;B9&amp;"', listName: '"&amp;C9&amp;"', nameZh: '"&amp;D9&amp;"', listNameZh: '"&amp;E9&amp;"',nameKo: '"&amp;F9&amp;"', listNameKo: '"&amp;G9&amp;"',nameEn: '"&amp;H9&amp;"', listNameEn: '"&amp;I9&amp;"'}"</f>
@@ -2051,38 +1734,17 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" ref="J10" si="1">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': { name: '"&amp;B10&amp;"', listName: '"&amp;C10&amp;"', nameZh: '"&amp;D10&amp;"', listNameZh: '"&amp;E10&amp;"',nameKo: '"&amp;F10&amp;"', listNameKo: '"&amp;G10&amp;"',nameEn: '"&amp;H10&amp;"', listNameEn: '"&amp;I10&amp;"'}"</f>
-        <v>, 'story-0': { name: '物語0：神語りのはじまり', listName: '物語0：神語りのはじまり', nameZh: '物语0 神话的开端', listNameZh: '物语0 神话的开端',nameKo: '이야기0: 신화의 시작', listNameKo: '이야기0: 신화의 시작',nameEn: 'Story 0: The Legend Begins', listNameEn: 'Story 0: The Legend Begins'}</v>
-      </c>
+    <row r="10" spans="1:22" ht="12" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2096,38 +1758,17 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" ref="J11:J27" si="2">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': { name: '"&amp;B11&amp;"', listName: '"&amp;C11&amp;"', nameZh: '"&amp;D11&amp;"', listNameZh: '"&amp;E11&amp;"',nameKo: '"&amp;F11&amp;"', listNameKo: '"&amp;G11&amp;"',nameEn: '"&amp;H11&amp;"', listNameEn: '"&amp;I11&amp;"'}"</f>
-        <v>, 'story-1': { name: '物語1：天音揺波 対 氷雨細音', listName: '物語1：天音揺波 対 氷雨細音', nameZh: '物语1 天音摇波 对 冰雨细音', listNameZh: '物语1 天音摇波 对 冰雨细音',nameKo: '이야기1: 아마네 유리나 대 히사메 사이네', listNameKo: '이야기1: 아마네 유리나 대 히사메 사이네',nameEn: 'Story 1: Yurina Amane vs. Saine Hisame', listNameEn: 'Story 1: Yurina Amane vs. Saine Hisame'}</v>
-      </c>
+    <row r="11" spans="1:22" ht="12" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2141,38 +1782,17 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-2': { name: '物語2：龍ノ宮一志暗殺計画', listName: '物語2：龍ノ宮一志暗殺計画', nameZh: '物语2 暗杀龙之宫一志计划', listNameZh: '物语2 暗杀龙之宫一志计划',nameKo: '이야기2: 타츠노미야 잇시 암살 계획', listNameKo: '이야기2: 타츠노미야 잇시 암살 계획',nameEn: 'Story 2: The Assassination of Isshi Tatsunomiya', listNameEn: 'Story 2: The Assassination of Isshi Tatsunomiya'}</v>
-      </c>
+    <row r="12" spans="1:22" ht="12" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2186,38 +1806,17 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-9': { name: '物語9：はじめての代理戦争', listName: '物語9：はじめての代理戦争', nameZh: '物语9 最初的代理战争', listNameZh: '物语9 最初的代理战争',nameKo: '이야기9: 처음하는 대리 전쟁', listNameKo: '이야기9: 처음하는 대리 전쟁',nameEn: 'Story 9: The First Proxy War', listNameEn: 'Story 9: The First Proxy War'}</v>
-      </c>
+    <row r="13" spans="1:22" ht="12" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2231,38 +1830,17 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-10': { name: '物語10：コルヌに挑戦！', listName: '物語10：コルヌに挑戦！', nameZh: '物语10 挑战凝努！', listNameZh: '物语10 挑战凝努！',nameKo: '이야기10: 코르누에게 도전!', listNameKo: '이야기10: 코르누에게 도전!',nameEn: 'Story 10: Challenge Korunu!', listNameEn: 'Story 10: Challenge Korunu!'}</v>
-      </c>
+    <row r="14" spans="1:22" ht="12" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2276,38 +1854,17 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-10-heroic': { name: '物語10：コルヌに挑戦！（英雄戦）', listName: '物語10：コルヌに挑戦！（英雄戦）', nameZh: '物语10 挑战凝努！（英雄战）', listNameZh: '物语10 挑战凝努！（英雄战）',nameKo: '이야기10: 코르누에게 도전! (영웅전)', listNameKo: '이야기10: 코르누에게 도전! (영웅전)',nameEn: 'Story 10: Challenge Korunu! (Heroic)', listNameEn: 'Story 10: Challenge Korunu! (Heroic)'}</v>
-      </c>
+    <row r="15" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2321,38 +1878,17 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-12': { name: '物語12：徒神サイネに挑戦！', listName: '物語12：徒神サイネに挑戦！', nameZh: '物语12 挑战徒神细音！', listNameZh: '物语12 挑战徒神细音！',nameKo: '이야기12: 도신 사이네에게 도전!', listNameKo: '이야기12: 도신 사이네에게 도전!',nameEn: 'Story 12: Challenge Adagami Saine!', listNameEn: 'Story 12: Challenge Adagami Saine!'}</v>
-      </c>
+    <row r="16" spans="1:22" ht="12" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2366,38 +1902,17 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-12-heroic': { name: '物語12：徒神サイネに挑戦！（英雄戦）', listName: '物語12：徒神サイネに挑戦！（英雄戦）', nameZh: '物语12 挑战徒神细音！（英雄战）', listNameZh: '物语12 挑战徒神细音！（英雄战）',nameKo: '이야기12: 도신 사이네에게 도전! (영웅전)', listNameKo: '이야기12: 도신 사이네에게 도전! (영웅전)',nameEn: 'Story 12: Challenge Adagami Saine! (Heroic)', listNameEn: 'Story 12: Challenge Adagami Saine! (Heroic)'}</v>
-      </c>
+    <row r="17" spans="1:22" ht="12" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2411,38 +1926,17 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-13': { name: '物語13：新幕トコヨに挑戦！', listName: '物語13：新幕トコヨに挑戦！', nameZh: '物语13 挑战新幕常世！', listNameZh: '物语13 挑战新幕常世！',nameKo: '이야기13: 신막 토코요에게 도전!', listNameKo: '이야기13: 신막 토코요에게 도전!',nameEn: 'Story 13: Challenge Tokoyo!', listNameEn: 'Story 13: Challenge Tokoyo!'}</v>
-      </c>
+    <row r="18" spans="1:22" ht="12" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2456,38 +1950,17 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-13-heroic': { name: '物語13：新幕トコヨに挑戦！（英雄戦）', listName: '物語13：新幕トコヨに挑戦！（英雄戦）', nameZh: '物语13 挑战新幕常世！（英雄战）', listNameZh: '物语13 挑战新幕常世！（英雄战）',nameKo: '이야기13: 신막 토코요에게 도전! (영웅전)', listNameKo: '이야기13: 신막 토코요에게 도전! (영웅전)',nameEn: 'Story 13: Challenge Tokoyo! (Heroic)', listNameEn: 'Story 13: Challenge Tokoyo! (Heroic)'}</v>
-      </c>
+    <row r="19" spans="1:22" ht="12" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2501,38 +1974,17 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'story-15': { name: '物語15：彼女の挑戦', listName: '物語15：彼女の挑戦', nameZh: '物语15 她的挑战', listNameZh: '物语15 她的挑战',nameKo: '이야기15: 그녀의 도전', listNameKo: '이야기15: 그녀의 도전',nameEn: 'Story 15: The Girl's Challenge', listNameEn: 'Story 15: The Girl's Challenge'}</v>
-      </c>
+    <row r="20" spans="1:22" ht="12" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2546,26 +1998,17 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="21" spans="1:22" ht="12" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'hajimari': { name: 'はじまりの決闘', listName: 'はじまりの決闘（初心者向け）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2579,26 +2022,17 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
+    <row r="22" spans="1:22" ht="12" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'oboro-challenge': { name: 'オボロへの挑戦', listName: 'メガミへの挑戦　第1回：オボロへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2612,26 +2046,17 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="23" spans="1:22" ht="12" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'oboro-challenge-heroic': { name: 'オボロへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第1回：オボロへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2645,26 +2070,17 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="24" spans="1:22" ht="12" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'chikage-challenge': { name: 'チカゲへの挑戦', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2678,26 +2094,17 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="25" spans="1:22" ht="12" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'chikage-challenge-heroic': { name: 'チカゲへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第2回：チカゲへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2711,26 +2118,17 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="26" spans="1:22" ht="12" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'raira-challenge': { name: 'ライラへの挑戦', listName: 'メガミへの挑戦　第3回：ライラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2744,26 +2142,17 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="27" spans="1:22" ht="12" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'raira-challenge-heroic': { name: 'ライラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第3回：ライラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2777,26 +2166,17 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
+    <row r="28" spans="1:22" ht="12" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="3" t="str">
-        <f t="shared" ref="J28:J31" si="3">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': { name: '"&amp;B28&amp;"', listName: '"&amp;C28&amp;"', nameZh: '"&amp;D28&amp;"', listNameZh: '"&amp;E28&amp;"',nameKo: '"&amp;F28&amp;"', listNameKo: '"&amp;G28&amp;"',nameEn: '"&amp;H28&amp;"', listNameEn: '"&amp;I28&amp;"'}"</f>
-        <v>, 'megumi-challenge': { name: 'メグミへの挑戦', listName: 'メガミへの挑戦　第4回：メグミへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2810,26 +2190,17 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="29" spans="1:22" ht="12" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>, 'megumi-challenge-heroic': { name: 'メグミへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第4回：メグミへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2843,26 +2214,17 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="30" spans="1:22" ht="12" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>, 'shinra-challenge': { name: 'シンラへの挑戦', listName: 'メガミへの挑戦　第5回：シンラへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2876,26 +2238,17 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="31" spans="1:22" ht="12" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>, 'shinra-challenge-heroic': { name: 'シンラへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第5回：シンラへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2909,26 +2262,17 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>174</v>
-      </c>
+    <row r="32" spans="1:22" ht="12" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="3" t="str">
-        <f t="shared" ref="J32:J35" si="4">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': { name: '"&amp;B32&amp;"', listName: '"&amp;C32&amp;"', nameZh: '"&amp;D32&amp;"', listNameZh: '"&amp;E32&amp;"',nameKo: '"&amp;F32&amp;"', listNameKo: '"&amp;G32&amp;"',nameEn: '"&amp;H32&amp;"', listNameEn: '"&amp;I32&amp;"'}"</f>
-        <v>, 'korunu-challenge': { name: 'コルヌへの挑戦', listName: 'メガミへの挑戦　第7回：コルヌへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2942,26 +2286,17 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>175</v>
-      </c>
+    <row r="33" spans="1:22" ht="12" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>, 'korunu-challenge-heroic': { name: 'コルヌへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第7回：コルヌへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2975,26 +2310,17 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>179</v>
-      </c>
+    <row r="34" spans="1:22" ht="12" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>, 'hagane-challenge': { name: 'ハガネへの挑戦', listName: 'メガミへの挑戦　第8回：ハガネへの挑戦', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3008,26 +2334,17 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>181</v>
-      </c>
+    <row r="35" spans="1:22" ht="12" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>, 'hagane-challenge-heroic': { name: 'ハガネへの挑戦（英雄戦）', listName: 'メガミへの挑戦　第8回：ハガネへの挑戦（英雄戦）', nameZh: '', listNameZh: '',nameKo: '', listNameKo: '',nameEn: '', listNameEn: ''}</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3161,7 +2478,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="25.5" customHeight="1">
+    <row r="41" spans="1:22" ht="12" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4265,7 +3582,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="12" customHeight="1">
+    <row r="87" spans="1:22" ht="13.5" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4889,7 +4206,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" ht="13.5" customHeight="1">
+    <row r="113" spans="1:22" ht="12" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4995,7 +4312,9 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -5019,7 +4338,9 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -5043,7 +4364,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -5067,7 +4390,9 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -5619,9 +4944,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
@@ -5645,9 +4968,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
@@ -5671,9 +4992,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -5697,9 +5016,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -9889,636 +9206,38 @@
       <c r="U320" s="2"/>
       <c r="V320" s="2"/>
     </row>
-    <row r="321" spans="1:22" ht="12" customHeight="1">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
-      <c r="G321" s="1"/>
-      <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
-      <c r="J321" s="2"/>
-      <c r="K321" s="2"/>
-      <c r="L321" s="2"/>
-      <c r="M321" s="2"/>
-      <c r="N321" s="2"/>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
-      <c r="T321" s="2"/>
-      <c r="U321" s="2"/>
-      <c r="V321" s="2"/>
-    </row>
-    <row r="322" spans="1:22" ht="12" customHeight="1">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
-      <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
-      <c r="J322" s="2"/>
-      <c r="K322" s="2"/>
-      <c r="L322" s="2"/>
-      <c r="M322" s="2"/>
-      <c r="N322" s="2"/>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
-      <c r="S322" s="2"/>
-      <c r="T322" s="2"/>
-      <c r="U322" s="2"/>
-      <c r="V322" s="2"/>
-    </row>
-    <row r="323" spans="1:22" ht="12" customHeight="1">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
-      <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
-      <c r="J323" s="2"/>
-      <c r="K323" s="2"/>
-      <c r="L323" s="2"/>
-      <c r="M323" s="2"/>
-      <c r="N323" s="2"/>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
-      <c r="S323" s="2"/>
-      <c r="T323" s="2"/>
-      <c r="U323" s="2"/>
-      <c r="V323" s="2"/>
-    </row>
-    <row r="324" spans="1:22" ht="12" customHeight="1">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
-      <c r="J324" s="2"/>
-      <c r="K324" s="2"/>
-      <c r="L324" s="2"/>
-      <c r="M324" s="2"/>
-      <c r="N324" s="2"/>
-      <c r="O324" s="2"/>
-      <c r="P324" s="2"/>
-      <c r="Q324" s="2"/>
-      <c r="R324" s="2"/>
-      <c r="S324" s="2"/>
-      <c r="T324" s="2"/>
-      <c r="U324" s="2"/>
-      <c r="V324" s="2"/>
-    </row>
-    <row r="325" spans="1:22" ht="12" customHeight="1">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
-      <c r="J325" s="2"/>
-      <c r="K325" s="2"/>
-      <c r="L325" s="2"/>
-      <c r="M325" s="2"/>
-      <c r="N325" s="2"/>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
-      <c r="Q325" s="2"/>
-      <c r="R325" s="2"/>
-      <c r="S325" s="2"/>
-      <c r="T325" s="2"/>
-      <c r="U325" s="2"/>
-      <c r="V325" s="2"/>
-    </row>
-    <row r="326" spans="1:22" ht="12" customHeight="1">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="2"/>
-      <c r="K326" s="2"/>
-      <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
-      <c r="N326" s="2"/>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
-      <c r="S326" s="2"/>
-      <c r="T326" s="2"/>
-      <c r="U326" s="2"/>
-      <c r="V326" s="2"/>
-    </row>
-    <row r="327" spans="1:22" ht="12" customHeight="1">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="2"/>
-      <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
-      <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
-      <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
-      <c r="Q327" s="2"/>
-      <c r="R327" s="2"/>
-      <c r="S327" s="2"/>
-      <c r="T327" s="2"/>
-      <c r="U327" s="2"/>
-      <c r="V327" s="2"/>
-    </row>
-    <row r="328" spans="1:22" ht="12" customHeight="1">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
-      <c r="J328" s="2"/>
-      <c r="K328" s="2"/>
-      <c r="L328" s="2"/>
-      <c r="M328" s="2"/>
-      <c r="N328" s="2"/>
-      <c r="O328" s="2"/>
-      <c r="P328" s="2"/>
-      <c r="Q328" s="2"/>
-      <c r="R328" s="2"/>
-      <c r="S328" s="2"/>
-      <c r="T328" s="2"/>
-      <c r="U328" s="2"/>
-      <c r="V328" s="2"/>
-    </row>
-    <row r="329" spans="1:22" ht="12" customHeight="1">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="2"/>
-      <c r="L329" s="2"/>
-      <c r="M329" s="2"/>
-      <c r="N329" s="2"/>
-      <c r="O329" s="2"/>
-      <c r="P329" s="2"/>
-      <c r="Q329" s="2"/>
-      <c r="R329" s="2"/>
-      <c r="S329" s="2"/>
-      <c r="T329" s="2"/>
-      <c r="U329" s="2"/>
-      <c r="V329" s="2"/>
-    </row>
-    <row r="330" spans="1:22" ht="12" customHeight="1">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="2"/>
-      <c r="K330" s="2"/>
-      <c r="L330" s="2"/>
-      <c r="M330" s="2"/>
-      <c r="N330" s="2"/>
-      <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
-      <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
-      <c r="T330" s="2"/>
-      <c r="U330" s="2"/>
-      <c r="V330" s="2"/>
-    </row>
-    <row r="331" spans="1:22" ht="12" customHeight="1">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
-      <c r="J331" s="2"/>
-      <c r="K331" s="2"/>
-      <c r="L331" s="2"/>
-      <c r="M331" s="2"/>
-      <c r="N331" s="2"/>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
-      <c r="Q331" s="2"/>
-      <c r="R331" s="2"/>
-      <c r="S331" s="2"/>
-      <c r="T331" s="2"/>
-      <c r="U331" s="2"/>
-      <c r="V331" s="2"/>
-    </row>
-    <row r="332" spans="1:22" ht="12" customHeight="1">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="2"/>
-      <c r="K332" s="2"/>
-      <c r="L332" s="2"/>
-      <c r="M332" s="2"/>
-      <c r="N332" s="2"/>
-      <c r="O332" s="2"/>
-      <c r="P332" s="2"/>
-      <c r="Q332" s="2"/>
-      <c r="R332" s="2"/>
-      <c r="S332" s="2"/>
-      <c r="T332" s="2"/>
-      <c r="U332" s="2"/>
-      <c r="V332" s="2"/>
-    </row>
-    <row r="333" spans="1:22" ht="12" customHeight="1">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="2"/>
-      <c r="K333" s="2"/>
-      <c r="L333" s="2"/>
-      <c r="M333" s="2"/>
-      <c r="N333" s="2"/>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
-      <c r="Q333" s="2"/>
-      <c r="R333" s="2"/>
-      <c r="S333" s="2"/>
-      <c r="T333" s="2"/>
-      <c r="U333" s="2"/>
-      <c r="V333" s="2"/>
-    </row>
-    <row r="334" spans="1:22" ht="12" customHeight="1">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="2"/>
-      <c r="K334" s="2"/>
-      <c r="L334" s="2"/>
-      <c r="M334" s="2"/>
-      <c r="N334" s="2"/>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
-      <c r="T334" s="2"/>
-      <c r="U334" s="2"/>
-      <c r="V334" s="2"/>
-    </row>
-    <row r="335" spans="1:22" ht="12" customHeight="1">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="2"/>
-      <c r="K335" s="2"/>
-      <c r="L335" s="2"/>
-      <c r="M335" s="2"/>
-      <c r="N335" s="2"/>
-      <c r="O335" s="2"/>
-      <c r="P335" s="2"/>
-      <c r="Q335" s="2"/>
-      <c r="R335" s="2"/>
-      <c r="S335" s="2"/>
-      <c r="T335" s="2"/>
-      <c r="U335" s="2"/>
-      <c r="V335" s="2"/>
-    </row>
-    <row r="336" spans="1:22" ht="12" customHeight="1">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="2"/>
-      <c r="K336" s="2"/>
-      <c r="L336" s="2"/>
-      <c r="M336" s="2"/>
-      <c r="N336" s="2"/>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
-      <c r="Q336" s="2"/>
-      <c r="R336" s="2"/>
-      <c r="S336" s="2"/>
-      <c r="T336" s="2"/>
-      <c r="U336" s="2"/>
-      <c r="V336" s="2"/>
-    </row>
-    <row r="337" spans="1:22" ht="12" customHeight="1">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="2"/>
-      <c r="K337" s="2"/>
-      <c r="L337" s="2"/>
-      <c r="M337" s="2"/>
-      <c r="N337" s="2"/>
-      <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
-      <c r="Q337" s="2"/>
-      <c r="R337" s="2"/>
-      <c r="S337" s="2"/>
-      <c r="T337" s="2"/>
-      <c r="U337" s="2"/>
-      <c r="V337" s="2"/>
-    </row>
-    <row r="338" spans="1:22" ht="12" customHeight="1">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
-      <c r="J338" s="2"/>
-      <c r="K338" s="2"/>
-      <c r="L338" s="2"/>
-      <c r="M338" s="2"/>
-      <c r="N338" s="2"/>
-      <c r="O338" s="2"/>
-      <c r="P338" s="2"/>
-      <c r="Q338" s="2"/>
-      <c r="R338" s="2"/>
-      <c r="S338" s="2"/>
-      <c r="T338" s="2"/>
-      <c r="U338" s="2"/>
-      <c r="V338" s="2"/>
-    </row>
-    <row r="339" spans="1:22" ht="12" customHeight="1">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="2"/>
-      <c r="K339" s="2"/>
-      <c r="L339" s="2"/>
-      <c r="M339" s="2"/>
-      <c r="N339" s="2"/>
-      <c r="O339" s="2"/>
-      <c r="P339" s="2"/>
-      <c r="Q339" s="2"/>
-      <c r="R339" s="2"/>
-      <c r="S339" s="2"/>
-      <c r="T339" s="2"/>
-      <c r="U339" s="2"/>
-      <c r="V339" s="2"/>
-    </row>
-    <row r="340" spans="1:22" ht="12" customHeight="1">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="2"/>
-      <c r="K340" s="2"/>
-      <c r="L340" s="2"/>
-      <c r="M340" s="2"/>
-      <c r="N340" s="2"/>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-      <c r="Q340" s="2"/>
-      <c r="R340" s="2"/>
-      <c r="S340" s="2"/>
-      <c r="T340" s="2"/>
-      <c r="U340" s="2"/>
-      <c r="V340" s="2"/>
-    </row>
-    <row r="341" spans="1:22" ht="12" customHeight="1">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
-      <c r="J341" s="2"/>
-      <c r="K341" s="2"/>
-      <c r="L341" s="2"/>
-      <c r="M341" s="2"/>
-      <c r="N341" s="2"/>
-      <c r="O341" s="2"/>
-      <c r="P341" s="2"/>
-      <c r="Q341" s="2"/>
-      <c r="R341" s="2"/>
-      <c r="S341" s="2"/>
-      <c r="T341" s="2"/>
-      <c r="U341" s="2"/>
-      <c r="V341" s="2"/>
-    </row>
-    <row r="342" spans="1:22" ht="12" customHeight="1">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
-      <c r="J342" s="2"/>
-      <c r="K342" s="2"/>
-      <c r="L342" s="2"/>
-      <c r="M342" s="2"/>
-      <c r="N342" s="2"/>
-      <c r="O342" s="2"/>
-      <c r="P342" s="2"/>
-      <c r="Q342" s="2"/>
-      <c r="R342" s="2"/>
-      <c r="S342" s="2"/>
-      <c r="T342" s="2"/>
-      <c r="U342" s="2"/>
-      <c r="V342" s="2"/>
-    </row>
-    <row r="343" spans="1:22" ht="12" customHeight="1">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="1"/>
-      <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
-      <c r="J343" s="2"/>
-      <c r="K343" s="2"/>
-      <c r="L343" s="2"/>
-      <c r="M343" s="2"/>
-      <c r="N343" s="2"/>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-      <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
-      <c r="T343" s="2"/>
-      <c r="U343" s="2"/>
-      <c r="V343" s="2"/>
-    </row>
-    <row r="344" spans="1:22" ht="12" customHeight="1">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
-      <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
-      <c r="J344" s="2"/>
-      <c r="K344" s="2"/>
-      <c r="L344" s="2"/>
-      <c r="M344" s="2"/>
-      <c r="N344" s="2"/>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2"/>
-      <c r="V344" s="2"/>
-    </row>
-    <row r="345" spans="1:22" ht="12" customHeight="1">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
-      <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="2"/>
-      <c r="K345" s="2"/>
-      <c r="L345" s="2"/>
-      <c r="M345" s="2"/>
-      <c r="N345" s="2"/>
-      <c r="O345" s="2"/>
-      <c r="P345" s="2"/>
-      <c r="Q345" s="2"/>
-      <c r="R345" s="2"/>
-      <c r="S345" s="2"/>
-      <c r="T345" s="2"/>
-      <c r="U345" s="2"/>
-      <c r="V345" s="2"/>
-    </row>
-    <row r="346" spans="1:22" ht="12" customHeight="1">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
-      <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
-      <c r="J346" s="2"/>
-      <c r="K346" s="2"/>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
-      <c r="P346" s="2"/>
-      <c r="Q346" s="2"/>
-      <c r="R346" s="2"/>
-      <c r="S346" s="2"/>
-      <c r="T346" s="2"/>
-      <c r="U346" s="2"/>
-      <c r="V346" s="2"/>
-    </row>
-    <row r="347" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="348" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="349" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="350" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="351" spans="1:22" ht="15.75" customHeight="1"/>
-    <row r="352" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
     <row r="353" ht="15.75" customHeight="1"/>
     <row r="354" ht="15.75" customHeight="1"/>
     <row r="355" ht="15.75" customHeight="1"/>
@@ -11113,32 +9832,6 @@
     <row r="944" ht="15.75" customHeight="1"/>
     <row r="945" ht="15.75" customHeight="1"/>
     <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/sheet/cardset.xlsx
+++ b/sheet/cardset.xlsx
@@ -850,38 +850,6 @@
     <t>新幕 シーズン7-2 (2022/5/13～ 『第七拡張：徒桜団円』以降)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">新幕 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>季7-2</t>
-    </r>
-  </si>
-  <si>
     <t>新幕 赛季7-2（2022/5/15～『7扩：徒樱团圆』之后）</t>
   </si>
   <si>
@@ -946,6 +914,32 @@
   </si>
   <si>
     <t>Shinmaku Season 7 (Expansion 6 release, 2021/12/3-)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新幕 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>季7-2</t>
+    </r>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1311,11 +1305,11 @@
   <dimension ref="A1:V946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1346,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1670,7 +1664,7 @@
         <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': { name: '"&amp;B8&amp;"', listName: '"&amp;C8&amp;"', nameZh: '"&amp;D8&amp;"', listNameZh: '"&amp;E8&amp;"',nameKo: '"&amp;F8&amp;"', listNameKo: '"&amp;G8&amp;"',nameEn: '"&amp;H8&amp;"', listNameEn: '"&amp;I8&amp;"'}"</f>
@@ -1700,22 +1694,22 @@
         <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': { name: '"&amp;B9&amp;"', listName: '"&amp;C9&amp;"', nameZh: '"&amp;D9&amp;"', listNameZh: '"&amp;E9&amp;"',nameKo: '"&amp;F9&amp;"', listNameKo: '"&amp;G9&amp;"',nameEn: '"&amp;H9&amp;"', listNameEn: '"&amp;I9&amp;"'}"</f>
